--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="154">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,331 +40,391 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
     <t>fear</t>
   </si>
   <si>
-    <t>died</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>poor</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>kill</t>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>anxiety</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>falling</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>anxiety</t>
+    <t>problem</t>
   </si>
   <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
+    <t>recession</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>pressure</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>isolation</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>risk</t>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>outbreak</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>corona</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>relief</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>good</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>friends</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>security</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
     <t>available</t>
   </si>
   <si>
     <t>want</t>
   </si>
   <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
     <t>full</t>
   </si>
   <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
     <t>staff</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>essential</t>
+    <t>use</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>news</t>
   </si>
   <si>
     <t>check</t>
@@ -373,55 +433,46 @@
     <t>buy</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>retail</t>
+    <t>3</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>san</t>
   </si>
   <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>stock</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>people</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>prices</t>
@@ -782,7 +833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -790,10 +841,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -851,13 +902,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -869,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K3">
         <v>0.9696969696969697</v>
@@ -901,13 +952,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -919,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4">
+        <v>0.9661016949152542</v>
+      </c>
+      <c r="L4">
         <v>57</v>
       </c>
-      <c r="K4">
-        <v>0.9574468085106383</v>
-      </c>
-      <c r="L4">
-        <v>45</v>
-      </c>
       <c r="M4">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -951,13 +1002,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8888888888888888</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -969,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -993,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1001,13 +1052,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.868421052631579</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1019,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K6">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1043,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1051,13 +1102,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1069,31 +1120,31 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="L7">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>24</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>2</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7">
-        <v>0.9017857142857143</v>
-      </c>
-      <c r="L7">
-        <v>101</v>
-      </c>
-      <c r="M7">
-        <v>101</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1101,13 +1152,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.815068493150685</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C8">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1119,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K8">
-        <v>0.8823529411764706</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1143,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1151,13 +1202,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8076923076923077</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1169,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K9">
-        <v>0.8802816901408451</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="L9">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="M9">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1193,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1201,13 +1252,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8076923076923077</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1219,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K10">
-        <v>0.875</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L10">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M10">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1243,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1251,13 +1302,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1269,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K11">
-        <v>0.8671875</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="L11">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="M11">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1293,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1301,13 +1352,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7931034482758621</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1319,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K12">
-        <v>0.8658536585365854</v>
+        <v>0.8671875</v>
       </c>
       <c r="L12">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="M12">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1343,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1351,13 +1402,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7692307692307693</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1369,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K13">
-        <v>0.8611111111111112</v>
+        <v>0.8661971830985915</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1393,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1401,13 +1452,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7368421052631579</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1419,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K14">
-        <v>0.8448275862068966</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1443,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1451,13 +1502,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7297297297297297</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1469,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K15">
-        <v>0.8301886792452831</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L15">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1493,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1501,13 +1552,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1519,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K16">
-        <v>0.82</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="L16">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M16">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1543,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1551,13 +1602,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6923076923076923</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1569,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K17">
-        <v>0.8095238095238095</v>
+        <v>0.84</v>
       </c>
       <c r="L17">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1593,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1601,13 +1652,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6842105263157895</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1619,19 +1670,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K18">
-        <v>0.8076923076923077</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1643,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1651,13 +1702,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6842105263157895</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1672,16 +1723,16 @@
         <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K19">
-        <v>0.79375</v>
+        <v>0.80625</v>
       </c>
       <c r="L19">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M19">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1693,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1701,13 +1752,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6774193548387096</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1719,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K20">
-        <v>0.783289817232376</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L20">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="M20">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1743,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>83</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1751,13 +1802,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1769,19 +1820,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K21">
-        <v>0.7674418604651163</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1793,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1801,13 +1852,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1822,16 +1873,16 @@
         <v>9</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K22">
-        <v>0.7553191489361702</v>
+        <v>0.762402088772846</v>
       </c>
       <c r="L22">
-        <v>71</v>
+        <v>292</v>
       </c>
       <c r="M22">
-        <v>71</v>
+        <v>292</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1843,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1851,13 +1902,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6486486486486487</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1869,19 +1920,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K23">
-        <v>0.7083333333333334</v>
+        <v>0.7553191489361702</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1893,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1901,13 +1952,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6363636363636364</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1919,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K24">
-        <v>0.7016949152542373</v>
+        <v>0.75</v>
       </c>
       <c r="L24">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1943,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>88</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1951,13 +2002,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6333333333333333</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1969,19 +2020,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K25">
-        <v>0.6923076923076923</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L25">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="M25">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1993,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2001,13 +2052,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6086956521739131</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2019,19 +2070,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K26">
-        <v>0.6764705882352942</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L26">
-        <v>230</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>230</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2043,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2051,13 +2102,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6086956521739131</v>
+        <v>0.675</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2069,19 +2120,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K27">
-        <v>0.6741573033707865</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L27">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2093,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2101,37 +2152,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5909090909090909</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>13</v>
       </c>
-      <c r="D28">
-        <v>13</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>9</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K28">
-        <v>0.6666666666666666</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2143,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2151,13 +2202,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5852713178294574</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C29">
-        <v>302</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>302</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2169,19 +2220,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>214</v>
+        <v>10</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K29">
-        <v>0.6359832635983264</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L29">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2193,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>87</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2201,13 +2252,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5838926174496645</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C30">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2219,19 +2270,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K30">
-        <v>0.6301369863013698</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L30">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2243,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2251,13 +2302,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5483870967741935</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2269,31 +2320,31 @@
         <v>0</v>
       </c>
       <c r="H31">
+        <v>12</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K31">
+        <v>0.6888888888888889</v>
+      </c>
+      <c r="L31">
+        <v>31</v>
+      </c>
+      <c r="M31">
+        <v>31</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>14</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K31">
-        <v>0.6296296296296297</v>
-      </c>
-      <c r="L31">
-        <v>17</v>
-      </c>
-      <c r="M31">
-        <v>17</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2301,13 +2352,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5185185185185185</v>
+        <v>0.5930232558139535</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>306</v>
       </c>
       <c r="D32">
-        <v>14</v>
+        <v>306</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2319,19 +2370,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K32">
-        <v>0.6025641025641025</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="L32">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="M32">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2343,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2351,13 +2402,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4666666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C33">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D33">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2369,19 +2420,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K33">
-        <v>0.5909090909090909</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2393,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2401,13 +2452,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.45</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2419,19 +2470,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K34">
-        <v>0.5882352941176471</v>
+        <v>0.6794117647058824</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2443,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2451,13 +2502,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4391534391534391</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C35">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2469,19 +2520,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K35">
-        <v>0.5806451612903226</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2493,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2501,13 +2552,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4363636363636363</v>
+        <v>0.5302013422818792</v>
       </c>
       <c r="C36">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="D36">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2519,19 +2570,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K36">
-        <v>0.5737704918032787</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L36">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2543,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2551,13 +2602,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4313725490196079</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C37">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D37">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2569,19 +2620,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K37">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2593,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2601,37 +2652,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.423728813559322</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C38">
+        <v>26</v>
+      </c>
+      <c r="D38">
+        <v>26</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>25</v>
       </c>
-      <c r="D38">
-        <v>25</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>34</v>
-      </c>
       <c r="J38" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K38">
-        <v>0.5555555555555556</v>
+        <v>0.640625</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2643,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2651,13 +2702,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3728813559322034</v>
+        <v>0.5</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2669,19 +2720,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K39">
-        <v>0.5555555555555556</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2693,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2701,13 +2752,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3666666666666666</v>
+        <v>0.46875</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2719,19 +2770,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K40">
-        <v>0.5531914893617021</v>
+        <v>0.6276150627615062</v>
       </c>
       <c r="L40">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="M40">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2743,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2751,13 +2802,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3636363636363636</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D41">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2769,19 +2820,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K41">
-        <v>0.5142857142857142</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L41">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M41">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2793,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2801,13 +2852,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3625</v>
+        <v>0.455026455026455</v>
       </c>
       <c r="C42">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="D42">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2819,19 +2870,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K42">
-        <v>0.5</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2843,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2851,13 +2902,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3333333333333333</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C43">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D43">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2869,19 +2920,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K43">
-        <v>0.5</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L43">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2893,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2901,13 +2952,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3035714285714285</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2919,19 +2970,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K44">
-        <v>0.5</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="L44">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M44">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2943,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2951,13 +3002,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2976190476190476</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="C45">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D45">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2969,19 +3020,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K45">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2993,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3001,13 +3052,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1983914209115281</v>
+        <v>0.4155844155844156</v>
       </c>
       <c r="C46">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="D46">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3019,19 +3070,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K46">
-        <v>0.5</v>
+        <v>0.575</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3043,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3051,37 +3102,37 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1151515151515152</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="C47">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E47">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K47">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L47">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M47">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3093,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3101,37 +3152,37 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004281949934123847</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="C48">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="D48">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E48">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>3023</v>
+        <v>165</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K48">
-        <v>0.4242424242424243</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3143,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3151,193 +3202,337 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004100946372239748</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C49">
+        <v>15</v>
+      </c>
+      <c r="D49">
+        <v>15</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>41</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K49">
+        <v>0.5319148936170213</v>
+      </c>
+      <c r="L49">
+        <v>25</v>
+      </c>
+      <c r="M49">
+        <v>25</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.25</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50">
+        <v>20</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>60</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K50">
+        <v>0.5</v>
+      </c>
+      <c r="L50">
         <v>13</v>
       </c>
-      <c r="D49">
-        <v>44</v>
-      </c>
-      <c r="E49">
-        <v>0.7</v>
-      </c>
-      <c r="F49">
-        <v>0.3</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>3157</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K49">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="L49">
+      <c r="M50">
         <v>13</v>
       </c>
-      <c r="M49">
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>13</v>
       </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.1849865951742627</v>
+      </c>
+      <c r="C51">
+        <v>69</v>
+      </c>
+      <c r="D51">
+        <v>69</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>304</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K51">
+        <v>0.459016393442623</v>
+      </c>
+      <c r="L51">
+        <v>28</v>
+      </c>
+      <c r="M51">
+        <v>28</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.0783132530120482</v>
+      </c>
+      <c r="C52">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <v>13</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>153</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K52">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="L52">
+        <v>32</v>
+      </c>
+      <c r="M52">
+        <v>32</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.006704486848891181</v>
+      </c>
+      <c r="C53">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>217</v>
+      </c>
+      <c r="E53">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F53">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1926</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K53">
+        <v>0.4</v>
+      </c>
+      <c r="L53">
+        <v>14</v>
+      </c>
+      <c r="M53">
+        <v>14</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.005431309904153354</v>
+      </c>
+      <c r="C54">
+        <v>17</v>
+      </c>
+      <c r="D54">
+        <v>88</v>
+      </c>
+      <c r="E54">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F54">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>3113</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K54">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="L54">
+        <v>15</v>
+      </c>
+      <c r="M54">
+        <v>15</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.005045408678102927</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>149</v>
+      </c>
+      <c r="E55">
+        <v>0.9</v>
+      </c>
+      <c r="F55">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>2958</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K55">
+        <v>0.3389830508474576</v>
+      </c>
+      <c r="L55">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="J50" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K50">
-        <v>0.3559322033898305</v>
-      </c>
-      <c r="L50">
-        <v>21</v>
-      </c>
-      <c r="M50">
-        <v>21</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="J51" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K51">
-        <v>0.2421052631578947</v>
-      </c>
-      <c r="L51">
-        <v>23</v>
-      </c>
-      <c r="M51">
-        <v>23</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="J52" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K52">
-        <v>0.2320574162679426</v>
-      </c>
-      <c r="L52">
-        <v>97</v>
-      </c>
-      <c r="M52">
-        <v>97</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="J53" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K53">
-        <v>0.2236842105263158</v>
-      </c>
-      <c r="L53">
-        <v>17</v>
-      </c>
-      <c r="M53">
-        <v>17</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="J54" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K54">
-        <v>0.2164948453608248</v>
-      </c>
-      <c r="L54">
-        <v>21</v>
-      </c>
-      <c r="M54">
-        <v>21</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="J55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K55">
-        <v>0.1971153846153846</v>
-      </c>
-      <c r="L55">
-        <v>82</v>
-      </c>
       <c r="M55">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3349,21 +3544,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>334</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="J56" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K56">
-        <v>0.1944444444444444</v>
+        <v>0.3263157894736842</v>
       </c>
       <c r="L56">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M56">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3375,73 +3570,73 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="J57" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K57">
-        <v>0.1682242990654206</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="L57">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N57">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>178</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="J58" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K58">
-        <v>0.1607142857142857</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L58">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M58">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="J59" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K59">
-        <v>0.1603053435114504</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L59">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M59">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3453,21 +3648,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>110</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="J60" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K60">
-        <v>0.1530612244897959</v>
+        <v>0.2320574162679426</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="M60">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3479,47 +3674,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>83</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="J61" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K61">
-        <v>0.1502347417840376</v>
+        <v>0.2215189873417721</v>
       </c>
       <c r="L61">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M61">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N61">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O61">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>181</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K62">
-        <v>0.1442307692307692</v>
+        <v>0.2181818181818182</v>
       </c>
       <c r="L62">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M62">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3531,21 +3726,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>89</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K63">
-        <v>0.1417322834645669</v>
+        <v>0.2125984251968504</v>
       </c>
       <c r="L63">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M63">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3557,47 +3752,47 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K64">
-        <v>0.1415094339622641</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="L64">
         <v>15</v>
       </c>
       <c r="M64">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N64">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K65">
-        <v>0.1220930232558139</v>
+        <v>0.1958762886597938</v>
       </c>
       <c r="L65">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3609,47 +3804,47 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>151</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K66">
-        <v>0.1212121212121212</v>
+        <v>0.1814109742441209</v>
       </c>
       <c r="L66">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="M66">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>145</v>
+        <v>731</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K67">
-        <v>0.1120689655172414</v>
+        <v>0.1802884615384615</v>
       </c>
       <c r="L67">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M67">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3661,21 +3856,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>103</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K68">
-        <v>0.0880503144654088</v>
+        <v>0.1782178217821782</v>
       </c>
       <c r="L68">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M68">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3687,21 +3882,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>145</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K69">
-        <v>0.08277404921700224</v>
+        <v>0.1581395348837209</v>
       </c>
       <c r="L69">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="M69">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3713,47 +3908,47 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>820</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K70">
-        <v>0.08176100628930817</v>
+        <v>0.1516587677725119</v>
       </c>
       <c r="L70">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M70">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>146</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K71">
-        <v>0.08102108768035517</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="L71">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="M71">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3765,229 +3960,229 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>828</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K72">
-        <v>0.07407407407407407</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L72">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M72">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>450</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K73">
-        <v>0.0705521472392638</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="L73">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M73">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N73">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>303</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K74">
-        <v>0.06986899563318777</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="L74">
         <v>16</v>
       </c>
       <c r="M74">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N74">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>213</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K75">
-        <v>0.06390977443609022</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="L75">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M75">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N75">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>249</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K76">
-        <v>0.05882352941176471</v>
+        <v>0.1292517006802721</v>
       </c>
       <c r="L76">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M76">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N76">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>288</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K77">
-        <v>0.05873261205564142</v>
+        <v>0.1287878787878788</v>
       </c>
       <c r="L77">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M77">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="N77">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O77">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>609</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K78">
-        <v>0.05758426966292135</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="L78">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="M78">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="N78">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>2013</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K79">
-        <v>0.05658198614318707</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L79">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="M79">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N79">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>817</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K80">
-        <v>0.03853211009174312</v>
+        <v>0.1130434782608696</v>
       </c>
       <c r="L80">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M80">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3999,137 +4194,449 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>524</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K81">
-        <v>0.02473498233215548</v>
+        <v>0.1122222222222222</v>
       </c>
       <c r="L81">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="M81">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="N81">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="O81">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>552</v>
+        <v>799</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K82">
-        <v>0.02388369678089304</v>
+        <v>0.1020092735703246</v>
       </c>
       <c r="L82">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="M82">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="N82">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="O82">
-        <v>0.18</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>940</v>
+        <v>581</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="K83">
-        <v>0.02294764059469942</v>
+        <v>0.09710743801652892</v>
       </c>
       <c r="L83">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="M83">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="N83">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="O83">
-        <v>0.15</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>3023</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="K84">
-        <v>0.01642178046672429</v>
+        <v>0.09577464788732394</v>
       </c>
       <c r="L84">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="M84">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="N84">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O84">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>1138</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="K85">
-        <v>0.00972396486825596</v>
+        <v>0.08614232209737828</v>
       </c>
       <c r="L85">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M85">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="N85">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>3157</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K86">
+        <v>0.08198614318706697</v>
+      </c>
+      <c r="L86">
+        <v>71</v>
+      </c>
+      <c r="M86">
+        <v>72</v>
+      </c>
+      <c r="N86">
+        <v>0.99</v>
+      </c>
+      <c r="O86">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K87">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="L87">
+        <v>15</v>
+      </c>
+      <c r="M87">
+        <v>15</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K88">
+        <v>0.06862745098039216</v>
+      </c>
+      <c r="L88">
+        <v>21</v>
+      </c>
+      <c r="M88">
+        <v>23</v>
+      </c>
+      <c r="N88">
+        <v>0.91</v>
+      </c>
+      <c r="O88">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K89">
+        <v>0.06727828746177369</v>
+      </c>
+      <c r="L89">
+        <v>22</v>
+      </c>
+      <c r="M89">
+        <v>22</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K90">
+        <v>0.05338078291814947</v>
+      </c>
+      <c r="L90">
+        <v>15</v>
+      </c>
+      <c r="M90">
+        <v>15</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K91">
+        <v>0.04335260115606936</v>
+      </c>
+      <c r="L91">
+        <v>15</v>
+      </c>
+      <c r="M91">
+        <v>18</v>
+      </c>
+      <c r="N91">
+        <v>0.83</v>
+      </c>
+      <c r="O91">
+        <v>0.17</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K92">
+        <v>0.04333764553686934</v>
+      </c>
+      <c r="L92">
+        <v>134</v>
+      </c>
+      <c r="M92">
+        <v>149</v>
+      </c>
+      <c r="N92">
+        <v>0.9</v>
+      </c>
+      <c r="O92">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K93">
+        <v>0.03886925795053003</v>
+      </c>
+      <c r="L93">
+        <v>22</v>
+      </c>
+      <c r="M93">
+        <v>23</v>
+      </c>
+      <c r="N93">
+        <v>0.96</v>
+      </c>
+      <c r="O93">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K94">
+        <v>0.02797927461139896</v>
+      </c>
+      <c r="L94">
+        <v>27</v>
+      </c>
+      <c r="M94">
+        <v>30</v>
+      </c>
+      <c r="N94">
+        <v>0.9</v>
+      </c>
+      <c r="O94">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
+      <c r="J95" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K95">
+        <v>0.02602230483271376</v>
+      </c>
+      <c r="L95">
+        <v>14</v>
+      </c>
+      <c r="M95">
+        <v>21</v>
+      </c>
+      <c r="N95">
+        <v>0.67</v>
+      </c>
+      <c r="O95">
+        <v>0.33</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
+      <c r="J96" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K96">
+        <v>0.02229899497487437</v>
+      </c>
+      <c r="L96">
+        <v>71</v>
+      </c>
+      <c r="M96">
+        <v>88</v>
+      </c>
+      <c r="N96">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O96">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P96" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="97" spans="10:17">
+      <c r="J97" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K97">
+        <v>0.01559792027729636</v>
+      </c>
+      <c r="L97">
+        <v>18</v>
+      </c>
+      <c r="M97">
+        <v>25</v>
+      </c>
+      <c r="N97">
+        <v>0.72</v>
+      </c>
+      <c r="O97">
+        <v>0.28</v>
+      </c>
+      <c r="P97" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>1136</v>
       </c>
     </row>
   </sheetData>
